--- a/OnBoard/output/trust/bio/Bio_Trust_51.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_51.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F105">
@@ -5783,18 +5783,28 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="I105">
-        <v>-1</v>
+        <v>158</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L105">
         <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>SS7659</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -5820,7 +5830,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F106">
@@ -5830,18 +5840,28 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="I106">
-        <v>-1</v>
+        <v>275</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L106">
         <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>SS7660</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -5862,12 +5882,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F107">
@@ -5877,18 +5897,28 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I107">
-        <v>-1</v>
+        <v>266</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L107">
         <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>SS7661</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -5909,12 +5939,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F108">
@@ -5924,1610 +5954,25 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="I108">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>77</v>
-      </c>
-      <c r="I109">
-        <v>70</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>85</v>
-      </c>
-      <c r="I110">
-        <v>92</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>80</v>
-      </c>
-      <c r="I111">
-        <v>78</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>74</v>
-      </c>
-      <c r="I112">
-        <v>62</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>72</v>
-      </c>
-      <c r="I113">
-        <v>58</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>73</v>
-      </c>
-      <c r="I114">
-        <v>60</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>72</v>
-      </c>
-      <c r="I115">
-        <v>58</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>80</v>
-      </c>
-      <c r="I116">
-        <v>78</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>75</v>
-      </c>
-      <c r="I117">
-        <v>65</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>PECTJAC</t>
-        </is>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>59</v>
-      </c>
-      <c r="I118">
-        <v>33</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>32</v>
-      </c>
-      <c r="I119">
-        <v>52</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
-      </c>
-      <c r="I120">
-        <v>43</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>32</v>
-      </c>
-      <c r="I121">
-        <v>52</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>26</v>
-      </c>
-      <c r="I122">
-        <v>28</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>28</v>
-      </c>
-      <c r="I123">
-        <v>35</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>26</v>
-      </c>
-      <c r="I124">
-        <v>28</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>27</v>
-      </c>
-      <c r="I125">
-        <v>31</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>27</v>
-      </c>
-      <c r="I126">
-        <v>31</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>32</v>
-      </c>
-      <c r="I127">
-        <v>52</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>30</v>
-      </c>
-      <c r="I128">
-        <v>43</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>27</v>
-      </c>
-      <c r="I129">
-        <v>31</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
-        </is>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>28</v>
-      </c>
-      <c r="I130">
-        <v>35</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>29</v>
-      </c>
-      <c r="I131">
-        <v>39</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>28</v>
-      </c>
-      <c r="I132">
-        <v>35</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>26</v>
-      </c>
-      <c r="I133">
-        <v>28</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>24</v>
-      </c>
-      <c r="I134">
-        <v>22</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
-        </is>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>263</v>
-      </c>
-      <c r="I135">
-        <v>158</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>SS7659</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>289</v>
-      </c>
-      <c r="I136">
-        <v>275</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>SS7660</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>300</v>
-      </c>
-      <c r="I137">
-        <v>266</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>SS7661</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>300</v>
-      </c>
-      <c r="I138">
-        <v>260</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="N138" t="inlineStr">
+      <c r="N108" t="inlineStr">
         <is>
           <t>SS7662</t>
         </is>
